--- a/sekaannusmatriisi.xlsx
+++ b/sekaannusmatriisi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Users\jk026110\ppuu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D317C218-97D2-474D-A263-8A361D4B9507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC2250E-2034-41CD-BEF7-B60EBB007809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15825" yWindow="3000" windowWidth="11610" windowHeight="11385" xr2:uid="{4194008F-8A26-4B50-8C3E-D1D69062DF36}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>accuracy=(TP+TN)/all</t>
   </si>
@@ -94,13 +94,22 @@
   </si>
   <si>
     <t>26 mallin tulos</t>
+  </si>
+  <si>
+    <t>prec *recall</t>
+  </si>
+  <si>
+    <t>2*</t>
+  </si>
+  <si>
+    <t>f1-score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +120,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -131,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -154,17 +171,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -479,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7452B494-3137-4F28-99C2-05FFB7B3AE98}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +529,7 @@
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -509,15 +548,17 @@
       <c r="B2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -528,6 +569,7 @@
       <c r="B4">
         <v>2</v>
       </c>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -537,6 +579,7 @@
         <f>SUM(B1:B4)</f>
         <v>108</v>
       </c>
+      <c r="F5" s="6"/>
       <c r="G5" t="s">
         <v>1</v>
       </c>
@@ -554,6 +597,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F6" s="6"/>
       <c r="G6" t="s">
         <v>2</v>
       </c>
@@ -571,6 +615,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F7" s="6"/>
       <c r="G7" t="s">
         <v>6</v>
       </c>
@@ -588,6 +633,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F8" s="6"/>
       <c r="G8" t="s">
         <v>3</v>
       </c>
@@ -596,6 +642,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F9" s="6"/>
       <c r="G9" t="s">
         <v>7</v>
       </c>
@@ -604,6 +651,9 @@
         <v>1046</v>
       </c>
     </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+    </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
@@ -612,6 +662,7 @@
         <f>B2/(B2+B1)</f>
         <v>0.2</v>
       </c>
+      <c r="F11" s="6"/>
       <c r="H11" t="s">
         <v>12</v>
       </c>
@@ -621,6 +672,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
+      <c r="F12" s="6"/>
       <c r="G12" t="s">
         <v>9</v>
       </c>
@@ -637,6 +689,7 @@
         <f>B2/(B2+B3)</f>
         <v>0.76923076923076927</v>
       </c>
+      <c r="F13" s="6"/>
       <c r="G13" t="s">
         <v>10</v>
       </c>
@@ -651,6 +704,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
+      <c r="F14" s="6"/>
       <c r="G14" t="s">
         <v>11</v>
       </c>
@@ -671,9 +725,17 @@
         <f>B2/(B2+B4)</f>
         <v>0.90909090909090906</v>
       </c>
+      <c r="F15" s="6"/>
       <c r="H15" s="1"/>
     </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+    </row>
     <row r="18" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F18" s="6"/>
       <c r="J18" s="2" t="s">
         <v>1</v>
       </c>
@@ -685,6 +747,7 @@
       </c>
     </row>
     <row r="19" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F19" s="6"/>
       <c r="J19" s="2" t="s">
         <v>3</v>
       </c>
@@ -696,6 +759,7 @@
       </c>
     </row>
     <row r="20" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F20" s="6"/>
       <c r="J20" s="3" t="s">
         <v>16</v>
       </c>
@@ -706,8 +770,15 @@
         <v>7</v>
       </c>
     </row>
+    <row r="21" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F22" s="6"/>
+    </row>
     <row r="23" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="6"/>
+      <c r="G23" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J23" s="2">
@@ -722,6 +793,7 @@
       </c>
     </row>
     <row r="24" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F24" s="6"/>
       <c r="J24" s="2">
         <v>8</v>
       </c>
@@ -734,7 +806,8 @@
       </c>
     </row>
     <row r="25" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F25" t="s">
+      <c r="F25" s="6"/>
+      <c r="G25" t="s">
         <v>19</v>
       </c>
       <c r="J25" s="4">
@@ -749,7 +822,11 @@
         <v>100</v>
       </c>
     </row>
+    <row r="26" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F26" s="6"/>
+    </row>
     <row r="27" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F27" s="6"/>
       <c r="J27" t="s">
         <v>9</v>
       </c>
@@ -758,6 +835,7 @@
       </c>
     </row>
     <row r="28" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F28" s="6"/>
       <c r="J28" t="s">
         <v>10</v>
       </c>
@@ -766,12 +844,70 @@
       </c>
     </row>
     <row r="29" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F29" s="6"/>
       <c r="J29" t="s">
         <v>11</v>
       </c>
       <c r="K29">
         <v>0.9</v>
       </c>
+    </row>
+    <row r="30" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F32" s="6"/>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33">
+        <f>2*(K28*K29)/(K28+K29)</f>
+        <v>0.78113207547169816</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F34" s="6"/>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F43" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
